--- a/tests/data/guides/08_expressions/report.xlsx
+++ b/tests/data/guides/08_expressions/report.xlsx
@@ -40,7 +40,7 @@
     <t>Apple (available)</t>
   </si>
   <si>
-    <t>14/May/2023</t>
+    <t>11/May/2023</t>
   </si>
   <si>
     <t>0.49</t>
@@ -64,7 +64,7 @@
     <t>Onions</t>
   </si>
   <si>
-    <t>25/May/2023</t>
+    <t>22/May/2023</t>
   </si>
   <si>
     <t>0.12</t>
